--- a/keyword表格.xlsx
+++ b/keyword表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B92891F-8BB7-4282-A728-BA8B97FC56F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDE5CED3-66A9-4EBE-BA73-641A603D6388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>.align</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,34 @@
   </si>
   <si>
     <t>单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anser = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opp1 地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">opp1 地址 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +328,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,9 +356,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,100 +648,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -700,8 +779,11 @@
         <v>60</v>
       </c>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -709,8 +791,11 @@
         <v>60</v>
       </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -718,8 +803,11 @@
         <v>60</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -727,252 +815,376 @@
         <v>60</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G53" s="2"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G54" s="2"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F57" s="1"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F58" s="1"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>

--- a/keyword表格.xlsx
+++ b/keyword表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDE5CED3-66A9-4EBE-BA73-641A603D6388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F059AA15-93E8-436C-883C-0B9924B5BA93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>.align</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,50 @@
   </si>
   <si>
     <t>MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读内存到opp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读整数存v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存访问，长度存anser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opp1-reg,number-位移,opp2-读到的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算address存到anser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入dest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +387,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -367,6 +417,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49:I55"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1113,50 +1176,69 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="F49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -1188,8 +1270,84 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="F60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="I63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="G49:G55"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
